--- a/medicine/Enfance/Oh_Boy_(roman)/Oh_Boy_(roman).xlsx
+++ b/medicine/Enfance/Oh_Boy_(roman)/Oh_Boy_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oh, boy ! est un roman écrit par Marie-Aude Murail paru en 2000 à l'École des loisirs. L'intrigue tourne autour d'une fratrie d'orphelins qui doit trouver un tuteur, alors que la relation avec leur demi-sœur est difficile et que leur demi-frère est immature et homosexuel. Le roman a remporté un grand succès et est utilisé dans l'enseignement pour évoquer la thématique de l'homosexualité.
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Siméon Morlevent : Adolescent de 14 ans maigre aux yeux marron, il est l'aîné du trio Morlevent. Il est aussi protecteur envers ses petites sœurs que pudique face aux adultes. Surdoué, il est en classe de terminale et prépare activement son bac.
 Morgane Morlevent : Fillette de 8 ans aux oreilles très décollées, elle est très proche de son frère Siméon qu'elle voit comme un modèle. Comme lui, elle excelle à l'école et met un point d'honneur à être la première partout. Très sensible, elle vit mal le fait d'être souvent oubliée par les adultes, coincée entre son grand frère précoce et sa petite sœur adorable.
@@ -552,7 +566,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récit suit une fratrie de trois enfants (Siméon, 14 ans, Morgane, 8 ans et Venise, 5 ans) devenus orphelins depuis peu. Leur père, Georges Morlevent, a disparu depuis longtemps et leur mère, Catherine, vient de se suicider en buvant du liquide vaisselle (afin de protéger ses deux jeunes sœurs, Siméon leur racontera qu'elle est décédée des suites d'une chute dans les escaliers). S'ils sont, dans un premier temps, placés temporairement tous les trois dans un foyer pour jeunes garçons, l'objectif premier des enfants et les Morlevent est de trouver un foyer sur le long terme sans être séparés les uns des autres.  
 Touchée par les malheurs des trois enfants et par la détermination de l'aîné, la juge des tutelles, Laurence Deschamps, commence ses recherches afin de retrouver des membres éloignés de la famille des jeunes Morlevent susceptibles d'assumer le rôle de tuteur. Elle leur trouve deux aînés, issus d'une première union de leur père : Josiane Morlevent, 37 ans, ophtalmologue, et Barthélémy (Bart) Morlevent, 26 ans, travaillant chez un antiquaire. Cependant, la question de la garde des trois enfants pose tout de suite de nombreux problèmes : si Barthélémy semble être théoriquement le tuteur idéal en raison de son lien fraternel direct avec les trois orphelins (tous les quatre étant les enfants de Georges Morlevent), il ne semble pas emballé à l'idée d'obtenir leurs gardes, d'autant que son hygiène de vie n'est pas des plus stables (particulièrement au niveau alimentaire et sentimental). Enfin, son homosexualité le rend victime de nombreux préjugés qui poussent Josiane Morlevent et la juge des tutelles à douter de son aptitude à servir de modèle à des enfants. Josiane, quant à elle, n'est pas directement liée par le sang aux trois orphelins puisque Georges Morlevent n'est pas son père biologique mais l'a simplement reconnue comme étant sa fille. Cependant, son cadre de vie aisé semble davantage propice que celui de son frère à accueillir la petite fratrie. Malheureusement, elle ne manifeste de l'intérêt qu'envers l'adoption de la benjamine du trio, Venise, qui représente à ses yeux la petite fille que toute mère rêverait d'avoir (elle-même n'est jamais parvenue à tomber enceinte) et annonce tout de suite à la juge son refus de se voir confier la garde des deux plus grands, ce qui va à l'encontre du souhait des trois enfants qui veulent avant tout rester ensemble.
@@ -589,7 +605,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prix Jeunesse France Télévision 2000
@@ -648,10 +666,12 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce roman a fait l'objet d'une adaptation télévisée en 2008, réalisée par Thierry Binisti sous le titre : On choisit pas ses parents.
-Ce roman fait aussi l'objet d'une adaptation sur la scène, sous le titre Oh Boy!, mise en scène par Olivier Letellier, adaptation du texte par Catherine Verlaguet, avec Lionel Erdogan. Le spectacle a obtenu en 2010 le Molière du spectacle jeune public. La pièce a été traduite en anglais (États-Unis) par Nicholas Elliott et jouée par Matthew Brown au New Victory Theater de New York[1] du 6 au 15 janvier 2017.
+Ce roman fait aussi l'objet d'une adaptation sur la scène, sous le titre Oh Boy!, mise en scène par Olivier Letellier, adaptation du texte par Catherine Verlaguet, avec Lionel Erdogan. Le spectacle a obtenu en 2010 le Molière du spectacle jeune public. La pièce a été traduite en anglais (États-Unis) par Nicholas Elliott et jouée par Matthew Brown au New Victory Theater de New York du 6 au 15 janvier 2017.
 </t>
         </is>
       </c>
